--- a/dakwah/absen-tarbiyah/agustus 2023.xlsx
+++ b/dakwah/absen-tarbiyah/agustus 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\dakwah\absen-tarbiyah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7435C3-217B-4033-8081-D26981CFACD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC57BB8-2484-4803-AEBF-E7A02D076393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D2FF171-1EFE-46EA-8313-FDDD65387EF4}"/>
   </bookViews>
@@ -263,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -765,6 +765,51 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -793,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -918,7 +963,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -961,11 +1010,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2 2" xfId="5" xr:uid="{F25A3689-EB26-40EC-9421-AA842008D1A7}"/>
@@ -1288,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2F16C6-FBB7-433A-8348-CEDB81B74204}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1321,59 +1370,59 @@
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
@@ -1395,35 +1444,35 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="59" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="61"/>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="64" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1503,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="63"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
         <v>33</v>
@@ -1773,30 +1822,32 @@
       </c>
       <c r="D22" s="10"/>
       <c r="F22" s="51"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="50"/>
-      <c r="N22" s="52"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="64" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="32" t="s">
         <v>20</v>
       </c>

--- a/dakwah/absen-tarbiyah/agustus 2023.xlsx
+++ b/dakwah/absen-tarbiyah/agustus 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\dakwah\absen-tarbiyah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC57BB8-2484-4803-AEBF-E7A02D076393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF13BA0-F7F1-4461-B430-E1109C728958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D2FF171-1EFE-46EA-8313-FDDD65387EF4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t xml:space="preserve">ABSENSI KEGIATAN </t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>D isiplin</t>
+  </si>
+  <si>
+    <t>✔️</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Di luar kota</t>
+  </si>
+  <si>
+    <t>Ada kegiatan di luar</t>
+  </si>
+  <si>
+    <t>Baru pulang kerja</t>
   </si>
 </sst>
 </file>
@@ -263,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -361,53 +379,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -430,62 +405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -527,23 +446,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -551,7 +457,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -564,47 +470,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -700,10 +571,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -714,33 +585,173 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -749,10 +760,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -761,58 +783,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -838,143 +815,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -998,23 +900,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0] 2 2" xfId="5" xr:uid="{F25A3689-EB26-40EC-9421-AA842008D1A7}"/>
@@ -1338,7 +1303,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1370,59 +1335,59 @@
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
@@ -1444,66 +1409,66 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="61" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="65"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
         <v>33</v>
@@ -1511,23 +1476,25 @@
     </row>
     <row r="8" spans="1:16" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="9">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="40"/>
+      <c r="D8" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="1"/>
       <c r="P8" t="s">
         <v>36</v>
@@ -1535,23 +1502,25 @@
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="15">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="19"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="47"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="1"/>
       <c r="P9" t="s">
         <v>34</v>
@@ -1559,23 +1528,27 @@
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="15">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="19"/>
+      <c r="D10" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="47"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="1"/>
       <c r="P10" t="s">
         <v>35</v>
@@ -1583,335 +1556,372 @@
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="15">
+      <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="19"/>
+      <c r="D11" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="20">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="27"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="20">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="27"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="20">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="27"/>
+      <c r="D14" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="20">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="27"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="20">
+      <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="27"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="8"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="20">
+      <c r="B17" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="27"/>
+      <c r="D17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="47"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="20">
+      <c r="B18" s="7">
         <v>12</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="27"/>
+      <c r="D18" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="20">
+      <c r="B19" s="7">
         <v>13</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="27"/>
+      <c r="D19" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="47"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="20">
+      <c r="B20" s="7">
         <v>14</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="27"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="20">
+      <c r="B21" s="7">
         <v>15</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="27"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="49">
+      <c r="B22" s="27">
         <v>16</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
+      <c r="D22" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="66" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="32" t="s">
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="33"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="12"/>
       <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="33"/>
+      <c r="K24" s="12"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="33"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="33"/>
+      <c r="K26" s="12"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="12"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="30" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="31"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="1"/>
     </row>
   </sheetData>
